--- a/tables/treatmentDemand/currentTrends/labourStatus.xlsx
+++ b/tables/treatmentDemand/currentTrends/labourStatus.xlsx
@@ -39,18 +39,9 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Unemployed / discouraged</t>
-  </si>
-  <si>
-    <t>Receiving social benefits / pensioners / house-makers / disable</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Not known / missing</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Receiving social benefits/pensioners/disabled</t>
+  </si>
+  <si>
+    <t>Not known</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,19 +510,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>0</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2017</v>

--- a/tables/treatmentDemand/currentTrends/labourStatus.xlsx
+++ b/tables/treatmentDemand/currentTrends/labourStatus.xlsx
@@ -138,10 +138,10 @@
     <t>Unemployed</t>
   </si>
   <si>
-    <t>Receiving social benefits/pensioners/disabled</t>
-  </si>
-  <si>
     <t>Not known</t>
+  </si>
+  <si>
+    <t>Social benefits/pensioners/disabled</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,13 +513,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>7</v>

--- a/tables/treatmentDemand/currentTrends/labourStatus.xlsx
+++ b/tables/treatmentDemand/currentTrends/labourStatus.xlsx
@@ -141,7 +141,7 @@
     <t>Not known</t>
   </si>
   <si>
-    <t>Social benefits/pensioners/disabled</t>
+    <t>Benefits/Disabled/Pensioner</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
